--- a/imageCreationExcel/back/114/114_11.xlsx
+++ b/imageCreationExcel/back/114/114_11.xlsx
@@ -486,39 +486,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6.97566876533005</v>
+        <v>1.076904420788259</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.176315734443542</v>
+        <v>0.8003707256008417</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.9002841167397954</v>
+        <v>27.141835260326</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_2_brightness6.976_contrast1.176_gamma0.9.jpg</t>
+          <t>1_E_contrast1.077_sharpness0.8_equalization27.142.jpg</t>
         </is>
       </c>
     </row>
@@ -528,39 +528,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>18.7769048063294</v>
+        <v>1.099630791437149</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9736019354068975</v>
+        <v>0.1625488379369819</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.8247644519368486</v>
+        <v>15.77230585433861</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_1_brightness18.777_contrast0.974_gamma0.825.jpg</t>
+          <t>2_9_contrast1.1_sharpness0.163_equalization15.772.jpg</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>27.47374925920728</v>
+        <v>14.33020793162596</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -587,22 +587,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.141209909189119</v>
+        <v>1.004273695137522</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.9530529809199457</v>
+        <v>1.01585277576838</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_8_brightness27.474_contrast1.141_sharpness0.953.jpg</t>
+          <t>3_0_brightness14.33_contrast1.004_gamma1.016.jpg</t>
         </is>
       </c>
     </row>
@@ -612,16 +612,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9730926915905984</v>
+        <v>0.9540775243184766</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.1934092263341352</v>
+        <v>0.5893400877865762</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,14 +637,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>18.40614186296951</v>
+        <v>19.4021770788654</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_S_contrast0.973_sharpness0.193_equalization18.406.jpg</t>
+          <t>4_8_gamma0.954_sharpness0.589_equalization19.402.jpg</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -663,15 +663,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>26.10546936687897</v>
+        <v>14.84616402531489</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.100879141852277</v>
+        <v>1.038462183312308</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -679,14 +679,14 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.8448456503388825</v>
+        <v>0.7394274455849099</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_7_brightness26.105_contrast1.101_sharpness0.845.jpg</t>
+          <t>5_2_brightness14.846_gamma1.038_sharpness0.739.jpg</t>
         </is>
       </c>
     </row>
@@ -696,16 +696,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.124001634944541</v>
+        <v>0.694558783401823</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.3367199394064097</v>
+        <v>0.2458641710285945</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -721,14 +721,14 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>29.96707355350026</v>
+        <v>25.64250888447831</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_B_contrast1.124_sharpness0.337_equalization29.967.jpg</t>
+          <t>6_T_gamma0.695_sharpness0.246_equalization25.643.jpg</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -747,30 +747,30 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>20.0528163225214</v>
+        <v>9.600413654477419</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.8027550082992269</v>
+        <v>0.9921769134943912</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.245773851326629</v>
+        <v>0.7815961062873077</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_E_brightness20.053_gamma0.803_sharpness0.246.jpg</t>
+          <t>7_B_brightness9.6_contrast0.992_gamma0.782.jpg</t>
         </is>
       </c>
     </row>
@@ -780,39 +780,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9216949889219982</v>
+        <v>3.073713801854664</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.5113775381626428</v>
+        <v>0.7527113799334685</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5.397569751108342</v>
+        <v>0.9311774044587815</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_7_gamma0.922_sharpness0.511_equalization5.398.jpg</t>
+          <t>8_B_brightness3.074_gamma0.753_sharpness0.931.jpg</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,15 +831,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3.57225950372417</v>
+        <v>2.783260475562855</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.873666391920865</v>
+        <v>0.5869024052655556</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -847,14 +847,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.4057238746713846</v>
+        <v>0.6648769139738857</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_1_brightness3.572_contrast0.874_sharpness0.406.jpg</t>
+          <t>9_9_brightness2.783_gamma0.587_sharpness0.665.jpg</t>
         </is>
       </c>
     </row>
@@ -864,39 +864,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9014326512681504</v>
+        <v>29.35509940732091</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.4629854874010769</v>
+        <v>0.8679071093215013</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5.119298317403009</v>
+        <v>0.1682832470280544</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_B_gamma0.901_sharpness0.463_equalization5.119.jpg</t>
+          <t>10_1_brightness29.355_gamma0.868_sharpness0.168.jpg</t>
         </is>
       </c>
     </row>
@@ -906,39 +906,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9831904741721829</v>
+        <v>18.35967874752728</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.5887777685967561</v>
+        <v>1.147595559779957</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>27.31667547823087</v>
+        <v>0.4114991031185868</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_8_gamma0.983_sharpness0.589_equalization27.317.jpg</t>
+          <t>11_S_brightness18.36_contrast1.148_sharpness0.411.jpg</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -957,30 +957,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>28.78469593121265</v>
+        <v>22.63894604414538</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.009686232364148</v>
+        <v>0.7969742899324919</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1.042406000745538</v>
+        <v>0.536169584263495</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_B_brightness28.785_contrast1.01_gamma1.042.jpg</t>
+          <t>12_9_brightness22.639_gamma0.797_sharpness0.536.jpg</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -999,30 +999,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.9635601983144244</v>
+        <v>0.9320687826154327</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.2913053093411886</v>
+        <v>0.6962661603026357</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>17.23076426098265</v>
+        <v>0.966361982380247</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_P_contrast0.964_sharpness0.291_equalization17.231.jpg</t>
+          <t>13_I_contrast0.932_gamma0.696_sharpness0.966.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,16 +1032,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.8674099387668923</v>
+        <v>9.82483160886224</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.5224605651566911</v>
+        <v>0.6116463050175026</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1057,14 +1057,14 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.6620677279435569</v>
+        <v>0.2130986111862044</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_0_contrast0.867_gamma0.522_sharpness0.662.jpg</t>
+          <t>14_C_brightness9.825_gamma0.612_sharpness0.213.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>20.41489455245606</v>
+        <v>15.76232634484877</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1091,22 +1091,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.063802635891681</v>
+        <v>0.8238317690890842</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.8641512680018398</v>
+        <v>1.097875865595004</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_7_brightness20.415_contrast1.064_sharpness0.864.jpg</t>
+          <t>15_I_brightness15.762_contrast0.824_gamma1.098.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,39 +1116,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.093465391626545</v>
+        <v>18.90896967793272</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.6672510097098688</v>
+        <v>1.07141247765635</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>20.4417128780474</v>
+        <v>0.844689646509782</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_I_contrast1.093_gamma0.667_equalization20.442.jpg</t>
+          <t>16_8_brightness18.909_contrast1.071_gamma0.845.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,16 +1158,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.089376791775266</v>
+        <v>0.7950467941480667</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.3310990815710662</v>
+        <v>0.8347099340595336</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>30.37827417312687</v>
+        <v>14.87981593372665</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_S_contrast1.089_sharpness0.331_equalization30.378.jpg</t>
+          <t>17_C_gamma0.795_sharpness0.835_equalization14.88.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,39 +1200,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.8081513459228979</v>
+        <v>3.424291553413249</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.6048231204674088</v>
+        <v>0.8870679949031195</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5.631988100726095</v>
+        <v>0.6609697273116906</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_1_contrast0.808_sharpness0.605_equalization5.632.jpg</t>
+          <t>18_E_brightness3.424_contrast0.887_sharpness0.661.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>28.71362769076078</v>
+        <v>0.7688809970346411</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.016088391075604</v>
+        <v>0.872153026060418</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.7456269244892405</v>
+        <v>20.36116433850244</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_I_brightness28.714_contrast1.016_sharpness0.746.jpg</t>
+          <t>19_P_gamma0.769_sharpness0.872_equalization20.361.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,39 +1284,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>24.8305313174204</v>
+        <v>0.7179040370865665</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.6832847361701989</v>
+        <v>0.48967225177651</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.4050180233833826</v>
+        <v>30.82445194069976</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_S_brightness24.831_gamma0.683_sharpness0.405.jpg</t>
+          <t>20_8_gamma0.718_sharpness0.49_equalization30.824.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,39 +1326,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>25.74582963059389</v>
+        <v>1.050083685240748</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.061536301095257</v>
+        <v>0.339232794449652</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.9236276869899974</v>
+        <v>23.48998595327366</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_P_brightness25.746_contrast1.062_sharpness0.924.jpg</t>
+          <t>21_T_contrast1.05_sharpness0.339_equalization23.49.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>28.15554676818087</v>
+        <v>8.799879097077111</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1385,22 +1385,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.9590475296534752</v>
+        <v>1.063896763556058</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.9047258555470751</v>
+        <v>0.8196407081467803</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_7_brightness28.156_contrast0.959_sharpness0.905.jpg</t>
+          <t>22_9_brightness8.8_contrast1.064_gamma0.82.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.071760672315843</v>
+        <v>1.173469580864988</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.9358850550843945</v>
+        <v>0.2465522781439582</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>13.23175910598166</v>
+        <v>24.68540372721932</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_S_contrast1.072_sharpness0.936_equalization13.232.jpg</t>
+          <t>23_C_contrast1.173_sharpness0.247_equalization24.685.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.029471536884771</v>
+        <v>0.9831897186047345</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.04150463553785</v>
+        <v>0.8336301854814829</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1477,14 +1477,14 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>22.67029801033935</v>
+        <v>14.82796251628112</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_2_contrast1.029_gamma1.042_equalization22.67.jpg</t>
+          <t>24_C_contrast0.983_gamma0.834_equalization14.828.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,39 +1494,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.051209701878863</v>
+        <v>3.933965199261196</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.5461071328063664</v>
+        <v>0.9858682214253558</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>15.89039328675717</v>
+        <v>0.9949098690287623</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_C_gamma1.051_sharpness0.546_equalization15.89.jpg</t>
+          <t>25_3_brightness3.934_gamma0.986_sharpness0.995.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,39 +1536,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.9393182968720059</v>
+        <v>15.14828915423982</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.3216704343083746</v>
+        <v>1.142751878424045</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>13.61856749910913</v>
+        <v>0.0106576701728699</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_0_contrast0.939_sharpness0.322_equalization13.619.jpg</t>
+          <t>26_8_brightness15.148_contrast1.143_sharpness0.011.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,39 +1578,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.177172297043122</v>
+        <v>11.66561696614398</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.5952804442179912</v>
+        <v>0.8402871233117034</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>19.85366312634166</v>
+        <v>1.074474135937744</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_2_contrast1.177_gamma0.595_equalization19.854.jpg</t>
+          <t>27_1_brightness11.666_contrast0.84_gamma1.074.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.184544313985291</v>
+        <v>19.36082077191899</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.6233559185309002</v>
+        <v>0.9546828900206834</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>16.60678949944928</v>
+        <v>0.8492992886993604</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_8_contrast1.185_gamma0.623_equalization16.607.jpg</t>
+          <t>28_B_brightness19.361_contrast0.955_gamma0.849.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,39 +1662,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.092220260418132</v>
+        <v>1.049577227831585</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.811081505312868</v>
+        <v>0.6283214030964984</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.8456743390797216</v>
+        <v>14.7206542206624</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_B_contrast1.092_gamma0.811_sharpness0.846.jpg</t>
+          <t>29_1_gamma1.05_sharpness0.628_equalization14.721.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,39 +1704,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.8406154964313468</v>
+        <v>1.003794204313371</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.4937516468275539</v>
+        <v>1.031091247996291</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>14.57052723259434</v>
+        <v>0.09144134149074086</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_I_gamma0.841_sharpness0.494_equalization14.571.jpg</t>
+          <t>30_7_contrast1.004_gamma1.031_sharpness0.091.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,39 +1746,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3.359432322683463</v>
+        <v>0.8066352315911782</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.8536956158344092</v>
+        <v>0.4712461899568981</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.4868344156594704</v>
+        <v>6.177457766552768</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_C_brightness3.359_contrast0.854_sharpness0.487.jpg</t>
+          <t>31_3_contrast0.807_sharpness0.471_equalization6.177.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,39 +1788,39 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.8542724176980556</v>
+        <v>26.94891691083034</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.4663270394007834</v>
+        <v>0.8278323085664128</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>4.926391722809325</v>
+        <v>0.766283134741476</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_E_contrast0.854_sharpness0.466_equalization4.926.jpg</t>
+          <t>32_1_brightness26.949_contrast0.828_sharpness0.766.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,39 +1830,39 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.195258545269128</v>
+        <v>28.15113403859261</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.001850146442090947</v>
+        <v>0.750422583379044</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>4.321728412618023</v>
+        <v>0.8211991620928669</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_3_contrast1.195_sharpness0.002_equalization4.322.jpg</t>
+          <t>33_0_brightness28.151_gamma0.75_sharpness0.821.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1881,30 +1881,30 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.09826796282671</v>
+        <v>1.019626384517316</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.1066173735537109</v>
+        <v>1.099181187486154</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>10.07524373820082</v>
+        <v>0.9089648170828414</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_8_contrast1.098_sharpness0.107_equalization10.075.jpg</t>
+          <t>34_7_contrast1.02_gamma1.099_sharpness0.909.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,39 +1914,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.136157750211648</v>
+        <v>1.077988565547923</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.7725001351524634</v>
+        <v>0.410921968279432</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.7956051319920183</v>
+        <v>24.53191548690758</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_I_contrast1.136_gamma0.773_sharpness0.796.jpg</t>
+          <t>35_C_gamma1.078_sharpness0.411_equalization24.532.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1965,30 +1965,30 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.128292084772359</v>
+        <v>1.041322376035484</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.7177809103739902</v>
+        <v>1.087320712965702</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>6.0317508913368</v>
+        <v>0.1800558864076415</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_7_contrast1.128_sharpness0.718_equalization6.032.jpg</t>
+          <t>36_C_contrast1.041_gamma1.087_sharpness0.18.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,39 +1998,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.9824107873920569</v>
+        <v>23.5782552493007</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.1089595250458849</v>
+        <v>1.054245706253254</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>22.50425737306447</v>
+        <v>0.6396977579850422</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_3_contrast0.982_sharpness0.109_equalization22.504.jpg</t>
+          <t>37_I_brightness23.578_contrast1.054_gamma0.64.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,39 +2040,39 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>6.549787088934922</v>
+        <v>0.5426528348733026</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.127043169645849</v>
+        <v>0.904928519392634</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.9450541926852117</v>
+        <v>15.3726271389505</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_I_brightness6.55_contrast1.127_gamma0.945.jpg</t>
+          <t>38_2_gamma0.543_sharpness0.905_equalization15.373.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,16 +2082,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.059078307669442</v>
+        <v>1.187067672607325</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.8281624977930836</v>
+        <v>0.4514054479749051</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2107,14 +2107,14 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>23.25528918478723</v>
+        <v>23.26142589033121</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_B_gamma1.059_sharpness0.828_equalization23.255.jpg</t>
+          <t>39_S_contrast1.187_sharpness0.451_equalization23.261.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,24 +2124,24 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>9.050834006811849</v>
+        <v>0.9876329927078109</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.8419571299258235</v>
+        <v>0.9533473575130441</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2149,14 +2149,14 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.3907215081174522</v>
+        <v>0.2618490265547632</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_S_brightness9.051_contrast0.842_sharpness0.391.jpg</t>
+          <t>40_9_contrast0.988_gamma0.953_sharpness0.262.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1.15674472056135</v>
+        <v>1.008044400944674</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2183,22 +2183,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.7179256660703797</v>
+        <v>0.6849095754678823</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.8852244887580356</v>
+        <v>18.89824031526566</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_1_contrast1.157_gamma0.718_sharpness0.885.jpg</t>
+          <t>41_E_contrast1.008_gamma0.685_equalization18.898.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,39 +2208,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.012003383811177</v>
+        <v>23.84128537283368</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.764872381349008</v>
+        <v>1.036376493887538</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>26.91439410858459</v>
+        <v>0.9329487921326272</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_3_contrast1.012_gamma0.765_equalization26.914.jpg</t>
+          <t>42_I_brightness23.841_contrast1.036_gamma0.933.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,39 +2250,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>18.25054199272722</v>
+        <v>0.9403071191133002</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.9214166932701966</v>
+        <v>0.9281959316005239</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.08701555007672353</v>
+        <v>21.26486458292627</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_S_brightness18.251_contrast0.921_sharpness0.087.jpg</t>
+          <t>43_0_contrast0.94_sharpness0.928_equalization21.265.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>25.53149327902365</v>
+        <v>21.84367564810122</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.091835037444528</v>
+        <v>1.033138571273877</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2317,14 +2317,14 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.9001047311527369</v>
+        <v>0.4739284786835686</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_I_brightness25.531_contrast1.092_sharpness0.9.jpg</t>
+          <t>44_P_brightness21.844_contrast1.033_sharpness0.474.jpg</t>
         </is>
       </c>
     </row>
@@ -2343,30 +2343,30 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.080163998456855</v>
+        <v>1.005682277107804</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.2014212974796934</v>
+        <v>0.9495443899061091</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>12.68417228093814</v>
+        <v>0.697035280363334</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_P_contrast1.08_sharpness0.201_equalization12.684.jpg</t>
+          <t>45_P_contrast1.006_gamma0.95_sharpness0.697.jpg</t>
         </is>
       </c>
     </row>
@@ -2381,19 +2381,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.770825205203145</v>
+        <v>1.132368756126966</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.5485791701373011</v>
+        <v>0.6400440103354437</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2401,14 +2401,14 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>15.4819866938658</v>
+        <v>14.38595693488748</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_B_gamma0.771_sharpness0.549_equalization15.482.jpg</t>
+          <t>46_B_contrast1.132_gamma0.64_equalization14.386.jpg</t>
         </is>
       </c>
     </row>
@@ -2423,34 +2423,34 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.7209222440760952</v>
+        <v>3.518717574301386</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.5281976002894642</v>
+        <v>0.6129268307701417</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>22.35876711295869</v>
+        <v>0.9780971757329129</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_E_gamma0.721_sharpness0.528_equalization22.359.jpg</t>
+          <t>47_E_brightness3.519_gamma0.613_sharpness0.978.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,39 +2460,39 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>14.188377814118</v>
+        <v>0.8079150464645334</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.8945478482790066</v>
+        <v>0.6956633322914925</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.6164642174197117</v>
+        <v>8.714735810124314</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_8_brightness14.188_contrast0.895_gamma0.616.jpg</t>
+          <t>48_9_contrast0.808_gamma0.696_equalization8.715.jpg</t>
         </is>
       </c>
     </row>
